--- a/interviews/春招记录.xlsx
+++ b/interviews/春招记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>公司名</t>
   </si>
@@ -82,7 +82,7 @@
     <t>3.16(过)</t>
   </si>
   <si>
-    <t>3.20(等)</t>
+    <t>3.20(估计凉了)</t>
   </si>
   <si>
     <t>https://www.nowcoder.com/discuss/387612</t>
@@ -106,13 +106,13 @@
     <t>java</t>
   </si>
   <si>
-    <t>3.17(等)</t>
+    <t>3.17(估计凉了)</t>
   </si>
   <si>
     <t>中国人寿</t>
   </si>
   <si>
-    <t>3.23 15:00(等)</t>
+    <t>3.23 15:00</t>
   </si>
   <si>
     <t>快手</t>
@@ -178,7 +178,13 @@
     <t>无</t>
   </si>
   <si>
-    <t>3.28 11:00()</t>
+    <t>3.28 11:00(等)</t>
+  </si>
+  <si>
+    <t>一汽大众</t>
+  </si>
+  <si>
+    <t>后端管培</t>
   </si>
 </sst>
 </file>
@@ -186,8 +192,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -221,21 +227,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -252,54 +243,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,30 +274,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,9 +320,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,181 +390,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,6 +575,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -589,33 +604,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,20 +630,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,147 +651,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,11 +825,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1157,10 +1169,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -1216,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="1"/>
@@ -1241,31 +1253,31 @@
         <v>17</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="M3" s="4"/>
+      <c r="M3" s="6"/>
       <c r="N3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="7"/>
       <c r="N4" t="s">
         <v>24</v>
       </c>
@@ -1285,16 +1297,16 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1319,26 +1331,26 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C8">
-        <v>3</v>
+      <c r="C8" s="3">
+        <v>43920</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1421,6 +1433,17 @@
       </c>
       <c r="E15" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43920</v>
       </c>
     </row>
   </sheetData>

--- a/interviews/春招记录.xlsx
+++ b/interviews/春招记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="28800" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="春招记录表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>公司名</t>
   </si>
@@ -34,9 +34,15 @@
     <t>面试二</t>
   </si>
   <si>
+    <t>面试三</t>
+  </si>
+  <si>
     <t>后续</t>
   </si>
   <si>
+    <t>待遇</t>
+  </si>
+  <si>
     <t>记录</t>
   </si>
   <si>
@@ -82,7 +88,7 @@
     <t>3.16(过)</t>
   </si>
   <si>
-    <t>3.20(估计凉了)</t>
+    <t>3.20(拒)</t>
   </si>
   <si>
     <t>https://www.nowcoder.com/discuss/387612</t>
@@ -97,7 +103,7 @@
     <t>测控/java</t>
   </si>
   <si>
-    <t>3.20 19:00(等)</t>
+    <t>等通知</t>
   </si>
   <si>
     <t>跟谁学</t>
@@ -106,13 +112,10 @@
     <t>java</t>
   </si>
   <si>
-    <t>3.17(估计凉了)</t>
-  </si>
-  <si>
     <t>中国人寿</t>
   </si>
   <si>
-    <t>3.23 15:00</t>
+    <t>口头offer,已做完测评，等信儿</t>
   </si>
   <si>
     <t>快手</t>
@@ -130,7 +133,7 @@
     <t>2.25(过)</t>
   </si>
   <si>
-    <t>毕业时间问题</t>
+    <t>审批失败</t>
   </si>
   <si>
     <t>IBM</t>
@@ -148,43 +151,73 @@
     <t>3.22 19:00(过)</t>
   </si>
   <si>
+    <t>Graviti</t>
+  </si>
+  <si>
+    <t>开发/测试(天津)</t>
+  </si>
+  <si>
+    <t>快看</t>
+  </si>
+  <si>
+    <t>服务端开发</t>
+  </si>
+  <si>
+    <t>便利蜂</t>
+  </si>
+  <si>
+    <t>java开发</t>
+  </si>
+  <si>
+    <t>3.23 19:00（过）</t>
+  </si>
+  <si>
     <t>等</t>
   </si>
   <si>
-    <t>Graviti</t>
-  </si>
-  <si>
-    <t>开发/测试(天津)</t>
-  </si>
-  <si>
-    <t>快看</t>
-  </si>
-  <si>
-    <t>服务端开发</t>
-  </si>
-  <si>
-    <t>便利蜂</t>
-  </si>
-  <si>
-    <t>java开发</t>
-  </si>
-  <si>
-    <t>3.23 19:00（等）</t>
-  </si>
-  <si>
     <t>爱奇艺</t>
   </si>
   <si>
     <t>无</t>
   </si>
   <si>
-    <t>3.28 11:00(等)</t>
-  </si>
-  <si>
-    <t>一汽大众</t>
-  </si>
-  <si>
-    <t>后端管培</t>
+    <t>等结果</t>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/discuss/401748</t>
+  </si>
+  <si>
+    <t>完美世界</t>
+  </si>
+  <si>
+    <t>迎客直播</t>
+  </si>
+  <si>
+    <t>后端开发</t>
+  </si>
+  <si>
+    <t>卓望</t>
+  </si>
+  <si>
+    <t>java开发岗</t>
+  </si>
+  <si>
+    <t>联通</t>
+  </si>
+  <si>
+    <t>java开发/信息支撑</t>
+  </si>
+  <si>
+    <t>中兴合作</t>
+  </si>
+  <si>
+    <t>软开</t>
+  </si>
+  <si>
+    <t>趣加</t>
+  </si>
+  <si>
+    <t>中国航信</t>
   </si>
 </sst>
 </file>
@@ -192,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -235,6 +268,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -243,23 +283,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,7 +299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,33 +307,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,49 +329,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +411,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -390,19 +429,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,157 +585,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,28 +626,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,32 +680,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,147 +699,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -825,29 +864,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1169,10 +1226,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -1180,12 +1237,13 @@
     <col min="2" max="2" width="15.8" customWidth="1"/>
     <col min="4" max="4" width="29.9" customWidth="1"/>
     <col min="5" max="5" width="16.8" customWidth="1"/>
-    <col min="6" max="6" width="14.7" customWidth="1"/>
-    <col min="7" max="7" width="16.7" customWidth="1"/>
-    <col min="8" max="8" width="35.6" customWidth="1"/>
+    <col min="6" max="7" width="14.7" customWidth="1"/>
+    <col min="8" max="8" width="21.1" customWidth="1"/>
+    <col min="9" max="9" width="16.7" customWidth="1"/>
+    <col min="10" max="10" width="35.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1210,176 +1268,204 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="H2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="J2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1">
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="M3" s="6"/>
-      <c r="N3" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="O3" s="12"/>
+      <c r="P3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1">
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" t="s">
+      <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="J4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="D5" s="3">
+        <v>43910</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="D6" s="5">
+        <v>43907</v>
+      </c>
+      <c r="E6" s="8">
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43913</v>
+      </c>
+      <c r="F7" s="3">
+        <v>43930</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3">
         <v>43920</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="D8" s="3">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:9">
+      <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="C9" s="7">
+        <v>43866</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C10" s="3">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="E11" s="9">
+        <v>43928</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1400,56 +1486,141 @@
       <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C13">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="C13" s="3">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>49</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="C14">
-        <v>3</v>
+      <c r="C14" s="3">
+        <v>43910</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="C15">
-        <v>3</v>
+      <c r="C15" s="3">
+        <v>43904</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="E15" s="3">
+        <v>43918</v>
+      </c>
+      <c r="F15" s="3">
+        <v>43922</v>
+      </c>
+      <c r="G15" s="3">
+        <v>43924</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3">
-        <v>43920</v>
+        <v>43896</v>
+      </c>
+      <c r="D16" s="3">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="3">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43941</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="https://www.nowcoder.com/discuss/387612"/>
-    <hyperlink ref="H2" r:id="rId2" display="https://www.nowcoder.com/discuss/386497"/>
+    <hyperlink ref="J4" r:id="rId1" display="https://www.nowcoder.com/discuss/387612"/>
+    <hyperlink ref="J2" r:id="rId2" display="https://www.nowcoder.com/discuss/386497"/>
+    <hyperlink ref="J15" r:id="rId3" display="https://www.nowcoder.com/discuss/401748"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
